--- a/xlsx/FR/standard_effect_FR.xlsx
+++ b/xlsx/FR/standard_effect_FR.xlsx
@@ -12,30 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">be a costly way to fight climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a large effect&lt;br&gt;on the FR economy and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a negative effect&lt;br&gt;on the FR economy and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce air pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce CO2 emissions from cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree nor disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -380,61 +389,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0251054731935779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.0286910324121079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0711312036551419</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0328963761781903</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0661043422483393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.097826336455253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.0760650777337442</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.14890425154527</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0841485517413793</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0748848920501624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.312425354028907</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.409724684199466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.38336622944824</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.234799044325921</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.262841483566742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.384222034932459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.355185048148166</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.257736108458392</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.389913717784309</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.390972008416408</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.180420801389803</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.130334157506516</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.138862206892956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.258242309970201</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.205197273718348</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/standard_effect_FR.xlsx
+++ b/xlsx/FR/standard_effect_FR.xlsx
@@ -401,19 +401,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0251054731935779</v>
+        <v>0.0215793953315256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0286910324121079</v>
+        <v>0.0254098885918969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0711312036551419</v>
+        <v>0.0703800945940369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0328963761781903</v>
+        <v>0.0370231198123127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0661043422483393</v>
+        <v>0.0695929396822658</v>
       </c>
     </row>
     <row r="3">
@@ -421,19 +421,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.097826336455253</v>
+        <v>0.0890741753657559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0760650777337442</v>
+        <v>0.087397410988201</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14890425154527</v>
+        <v>0.169168693236253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0841485517413793</v>
+        <v>0.0846264843378099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0748848920501624</v>
+        <v>0.0870711852744483</v>
       </c>
     </row>
     <row r="4">
@@ -441,19 +441,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.312425354028907</v>
+        <v>0.310801201836499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.409724684199466</v>
+        <v>0.40278976736821</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38336622944824</v>
+        <v>0.3740044190418</v>
       </c>
       <c r="E4" t="n">
-        <v>0.234799044325921</v>
+        <v>0.227378909186836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.262841483566742</v>
+        <v>0.249559365398467</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.384222034932459</v>
+        <v>0.386580333497091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.355185048148166</v>
+        <v>0.349067314642165</v>
       </c>
       <c r="D5" t="n">
-        <v>0.257736108458392</v>
+        <v>0.247795842474476</v>
       </c>
       <c r="E5" t="n">
-        <v>0.389913717784309</v>
+        <v>0.389960691146495</v>
       </c>
       <c r="F5" t="n">
-        <v>0.390972008416408</v>
+        <v>0.388573894762932</v>
       </c>
     </row>
     <row r="6">
@@ -481,19 +481,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.180420801389803</v>
+        <v>0.191964893969128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.130334157506516</v>
+        <v>0.135335618409527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.138862206892956</v>
+        <v>0.138650950653434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.258242309970201</v>
+        <v>0.261010795516547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.205197273718348</v>
+        <v>0.205202614881886</v>
       </c>
     </row>
   </sheetData>
